--- a/outputs/test006/report_stage1_list.xlsx
+++ b/outputs/test006/report_stage1_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:M225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-provenir-4337407786?position=1&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=aIBhd03y42LS0qMVS9oHRQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-provenir-4337407786?position=1&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=i3LRl5r2kKRAKYpXXEjYAQ%3D%3D</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-new-grad-at-nightfall-ai-4333294031?position=2&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=tDhJRKy%2F8En0hsR2zyX%2BTA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-new-grad-at-nightfall-ai-4333294031?position=2&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=Q6K22I3%2BAln7nmHJqT3Apw%3D%3D</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/software-engineer-ai-ml-at-kla-4313083578?position=3&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=nAkJefO5PBKZtTXsSQVhrQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-ai-ml-at-kla-4313083578?position=3&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=ctSJDWXYeEIb%2BFEarRewcA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ml-ai-engineer-at-munich-re-4333915831?position=4&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=CjgDnqBsQMAnrkHCG8lGiQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ml-ai-engineer-at-munich-re-4333915831?position=4&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=Ko%2BkiePYdhL%2Bf4VisLqFbA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-kanini-4320644816?position=5&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=rUFssVSnXMrMt%2BcDFtMIlQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-kanini-4320644816?position=5&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=4mWVo1wUMgMD66PLsCXWOQ%3D%3D</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/software-engineer-machine-learning-at-geico-4320781148?position=6&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=4qS6nVwwy8abuqYHOA9c5A%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-machine-learning-at-geico-4320781148?position=6&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=K8FdBvcf9fRce3rWpjaieA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-roc-search-4334069129?position=7&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=jK3B9tMlA%2F9dIrOpwwXYxQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-roc-search-4334069129?position=7&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=%2B4KNnrSVnzrTrTA7hxNxUg%3D%3D</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/artificial-intelligence-engineer-at-hackajob-4334035478?position=8&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=yx%2B10qogm7URNOVKDDVi9Q%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/artificial-intelligence-engineer-at-hackajob-4334035478?position=8&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=X1FgNPf9NKt5pcm%2FawJhRA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-gainwell-technologies-4337434398?position=9&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=RJJ%2BQec9JTg4qvIhIOQ61g%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-gainwell-technologies-4337434398?position=9&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=44HP9whjq1h75Tcsr56O%2Bw%3D%3D</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-at-synergis-4320732498?position=10&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=bdel0tMRCQftq6%2FzGcZ4vQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-at-synergis-4320732498?position=10&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=SV5mi0%2Bq%2FdDKgP5M8iGk2g%3D%3D</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-ii-training-at-whoop-4337704257?position=11&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=KRwXaU5WgC8eDPROF14GMA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-ii-training-at-whoop-4337704257?position=11&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=aLECU2V4TvR2IJJRPIYLMQ%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-emonics-llc-4320633075?position=12&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=CjMsvGUrdOR9K2oGglMP8w%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-emonics-llc-4320633075?position=12&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=27RHywxj3k56unqR8N6RjA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-at-recruits-lab-4337324664?position=13&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=cyl2QxgEGTFSdN0VRC6XTQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-at-recruits-lab-4337324664?position=13&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=a8jr4EXJ7w1gQpa51%2B%2BOOw%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/software-engineer-machine-learning-sensor-simulation-at-nuro-4320456788?position=14&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=dC%2BmJydZpgWfmr5957%2FWiQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-machine-learning-sensor-simulation-at-nuro-4320456788?position=14&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=38ST8kugVR7yol%2BP20hmUQ%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-prestige-staffing-4337701917?position=15&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=pmVIBcRweWkWGR0qpU548Q%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-prestige-staffing-4337701917?position=15&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=B1Anwo%2FYad3aggGL7aMUdA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-finastra-4320620292?position=16&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=CPKFThecDqR8dbg9WoEnmg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-finastra-4320620292?position=16&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=twRlIpuTZCKGZaQNpgfqMQ%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ml-engineer-at-tata-consultancy-services-4320496089?position=17&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=2rpEVOdF2qM9KEEWmxwLwg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ml-engineer-at-tata-consultancy-services-4320496089?position=17&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=cnET13WhUobkGLOALcWN0Q%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-zillow-4334572171?position=18&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=l2n7pTorfYNR7Sh1xnGq6g%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-zillow-4334572171?position=18&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=c2OWB%2F%2BIjP3j%2BfCP20HFfw%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-intern-at-fizz-4316957614?position=19&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=jnNNTCbcu7CJPS4ESxt6Vg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-intern-at-fizz-4316957614?position=19&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=D8A6SLltRoD2ZqQ5xZOBPw%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-bumble-inc-4314095829?position=20&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=ecBHlq0tsAA2Rsb4lwbWXw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-bumble-inc-4314095829?position=20&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=xRPRUqPXgz%2Bc23GhgVKviA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-intern-immediate-start-at-fizz-4320930689?position=21&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=fU08hk0g9pKkb3VO3wOBsQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-intern-immediate-start-at-fizz-4320930689?position=21&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=qKJtLMhsrTnTwLUkd1RqjA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-city-of-new-york-4337387931?position=22&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=vouu7iRsBT0dL7RW%2FCMMrA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-city-of-new-york-4337387931?position=22&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=cBPUBrwdPJiiGEfgKx59DA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-toyota-research-institute-4334389590?position=23&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=khmQ2rkOrz4sRCNYy%2BvxfA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-toyota-research-institute-4334389590?position=23&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=BNJrfcKMCEJBkYDkJfFl3g%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-exxonmobil-4332803693?position=24&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=z3ouULvxdo%2BZchHF%2BEL5Fg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-exxonmobil-4332803693?position=24&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=5Kx3S875QB0VS%2BWBdOscdA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-software-engineer-at-avalara-4315364646?position=25&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=M6Q5Ht44hLqID%2FFx1xBJgw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-software-engineer-at-avalara-4315364646?position=25&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=oZv%2BTSPhnStV7SlWq3kT7Q%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-new-grad-at-latinx-in-ai-lxai-4315057004?position=26&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=Zoh29cyqhxaqAULgEtnPcw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-new-grad-at-latinx-in-ai-lxai-4315057004?position=26&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=esxTYg1EUm0iVmJmN5GyNg%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-baselayer-4333679723?position=27&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=RSdpdU4lT4OI%2BHweeM5TIA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-baselayer-4333679723?position=27&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=Hz88YmbpCTq%2BcQf7F1HvIA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-rldatix-4337315117?position=28&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=84W1Pri%2BIZmTE4%2BccFF1eA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-rldatix-4337315117?position=28&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=7ZXNKSSostbkashh74867A%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-fractal-4315745613?position=29&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=HLThIYpgRcoK1d20%2FotI7A%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-fractal-4315745613?position=29&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=xKUR5xwptUg5FnrM99lAkQ%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/applied-ml-engineer-computer-vision-at-boon-4318505729?position=30&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=OmaOFAHz4KtDtfnBd6pY4A%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/applied-ml-engineer-computer-vision-at-boon-4318505729?position=30&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=OzOBXVrQkAViGJ90e%2FyNNQ%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/artificial-intelligence-machine-learning-developer-at-unissant-4320347759?position=31&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=UP4t2rgRi%2Bqh0SuXX%2FrG3g%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/artificial-intelligence-machine-learning-developer-at-unissant-4320347759?position=31&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=ei0QRCquV3gGhX8ly5JY4A%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/applied-ml-engineer-computer-vision-at-boon-4317585153?position=32&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=mYbf1MOUfyJC1y07mqa4Kg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/applied-ml-engineer-computer-vision-at-boon-4317585153?position=32&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=WjXahpjc%2BhQd7325p991%2BA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/software-engineer-ai-ml-google-ads-at-google-4320984247?position=33&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=ZWfJ15S7IworAXSm9B%2F0ww%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-ai-ml-google-ads-at-google-4320984247?position=33&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=n2r33nzM1Wl2OrlPD7WBrQ%3D%3D</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-tata-consultancy-services-4320783011?position=34&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=goMBsb%2FFLNEhndPGted3qw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-tata-consultancy-services-4320783011?position=34&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=WoLtKfSb3OAgclpULTvbaA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/software-engineer-ai-platform-new-grad-at-nuro-4317707969?position=35&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=rigAvAjytsKUSqH17OeCHQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-ai-platform-new-grad-at-nuro-4317707969?position=35&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=2zgVd6UBaeEVJF7whCXWQA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/software-engineer-machine-learning-at-geico-4319383799?position=36&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=2NSY%2BUpGPwUVXupjuSB0eg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-machine-learning-at-geico-4319383799?position=36&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=DtMMljRcisXCloKZOWEjLQ%3D%3D</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-computer-vision-at-metropolis-technologies-4334067783?position=37&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=4OdQeWVZi%2FOoAHUZLVesYQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-computer-vision-at-metropolis-technologies-4334067783?position=37&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=iuwitMQfA%2Froq%2BdXyQL%2FnQ%3D%3D</t>
         </is>
       </c>
     </row>
@@ -2130,25 +2130,25 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-evona-4337447666?position=38&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=rF63j4ppt5FzkULEntpvYw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-evona-4337447666?position=38&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=6BO%2FjcPSVvudIXaEdE9mzw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, Computer Vision</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Metropolis Technologies</t>
+          <t>Propio Language Services</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>Overland Park, KS</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2173,25 +2173,25 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-computer-vision-at-metropolis-technologies-4333928645?position=39&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=6vLEnSXhaXlHCsMu2VELiA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-propio-language-services-4334022161?position=39&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=flgfZJsJhIk3xeh38qMC4w%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Machine Learning Engineer, Computer Vision</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Propio Language Services</t>
+          <t>Metropolis Technologies</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Overland Park, KS</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-propio-language-services-4334022161?position=40&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=gStylwMsfPfgyhP4JvIx4A%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-computer-vision-at-metropolis-technologies-4333928645?position=40&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=D4V9fwQknoq5Vq9uCzLTjA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-ai-at-american-modern-insurance-group-4334057815?position=41&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=FR45bpkE44U%2Bmw%2BkUhTFAA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-ai-at-american-modern-insurance-group-4334057815?position=41&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=6T%2F3hpp%2B7Kh3ZDwaJflEOA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-fractal-4315753687?position=42&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=66A9DDg0eXoJEVdxmNI17w%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-fractal-4315753687?position=42&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=HbMCPl2fD3xkIZMMb5O9Sg%3D%3D</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/junior-data-scientist-at-analytica-4334057231?position=43&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=h9fs8jRV24mOIR2bcGnzhg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/junior-data-scientist-at-analytica-4334057231?position=43&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=hyZM%2BAp%2FMBVNiKK70o1N7w%3D%3D</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/senior-ai-ml-engineer-at-general-motors-4333923633?position=44&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=XhLQmo201xmYVXJwN0P%2Faw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/senior-ai-ml-engineer-at-general-motors-4333923633?position=44&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=X1%2Fdqiw%2ByIXqrcoZZHS63Q%3D%3D</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/artificial-intelligence-engineer-at-prestige-staffing-4320722981?position=45&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=e0wd7f06hN18TNwqOYT5Lg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/artificial-intelligence-engineer-at-prestige-staffing-4320722981?position=45&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=XT9o4NC8hq9XfrJ5HABC3A%3D%3D</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-outschool-4321295455?position=46&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=X8UD2X70O2mXgBfraZU4JQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-outschool-4321295455?position=46&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=Ao2j1sdu%2Fd225OxzSzCqDw%3D%3D</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/artificial-intelligence-engineer-at-magna-legal-services-4333798968?position=47&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=WkkOdf52B44SNU2f6Ry3Aw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/artificial-intelligence-engineer-at-magna-legal-services-4333798968?position=47&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=NtZ5Y2Y8uL1YIMOKzKfwlg%3D%3D</t>
         </is>
       </c>
     </row>
@@ -2560,25 +2560,25 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-software-engineer-at-tamarind-bio-4280507644?position=48&amp;pageNum=0&amp;refId=CA10PyZfatoL0ciQ0BvGBQ%3D%3D&amp;trackingId=9xY3%2Blq0vJ1ZoqrdZH1dug%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-software-engineer-at-tamarind-bio-4280507644?position=48&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=I849TzaZ71jTzYrIFUtnGA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Artificial Intelligence/Machine Learning (AI/ML) Engineer</t>
+          <t>Software Engineer, AI Platform</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GliaCell Technologies</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Annapolis Junction, MD</t>
+          <t>Mountain View, CA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2588,7 +2588,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2603,25 +2603,25 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/artificial-intelligence-machine-learning-ai-ml-engineer-at-gliacell-technologies-4334380821?position=3&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=ImXtiOij6SjEdNJOuHoE0g%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-ai-platform-at-linkedin-4317358470?position=49&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=WhqG60ER%2FCLNmqSX4G5tAg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Machine Learning Manager, Asset Generation DSE</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Mariana Minerals</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2631,7 +2631,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2646,25 +2646,25 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-manager-asset-generation-dse-at-netflix-4069141226?position=5&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=jO5F6dydxECNVsQxHU%2FgBg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-mariana-minerals-4318298872?position=50&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=aIi0eNjg1SUbzCAm%2Fv%2Bqfw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Data Scientist, Product</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Notion</t>
+          <t>DISA Technologies, Inc.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Casper, WY</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2674,7 +2674,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2689,25 +2689,25 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-product-at-notion-4334357275?position=6&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=91koc259AA%2FCqsACJvcuHQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-disa-technologies-inc-4334328829?position=51&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=EeGT1fgYrcjDMoShdtD8rg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Data Science Intern - Year Round</t>
+          <t>AI Software Engineer</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Charter Steel</t>
+          <t>Nuvia Dental Implant Center</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Saukville, WI</t>
+          <t>St George, UT</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2717,7 +2717,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -2732,25 +2732,25 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-science-intern-year-round-at-charter-steel-4337468355?position=7&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=L9XlZnwM8gQzKg2rib9Qeg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-software-engineer-at-nuvia-dental-implant-center-4312505299?position=52&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=AkPl4zWP%2BZGWKnktF04vKw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Data Science Intern</t>
+          <t>Machine Learning Engineer | $100/hr Remote</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Calamos Investments</t>
+          <t>Crossing Hurdles</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2775,25 +2775,25 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-science-intern-at-calamos-investments-4333968323?position=9&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=go9pISd2LGWOf7BSCd%2BhHg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-%24100-hr-remote-at-crossing-hurdles-4334065771?position=53&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=hRumcB2e9M3t3P8fRL%2FhHw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Junior AI/ML engineer</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Daice Labs</t>
+          <t>Adobe</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Boston, MA</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -2803,7 +2803,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2025-11-02</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2818,25 +2818,25 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/junior-ai-ml-engineer-at-daice-labs-4333568414?position=10&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=ppkUsACSFk0BKGNZDmu1Jg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-adobe-4316653556?position=54&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=8ZHJcERf4cSxBB26nylOmQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AI/ML Engineer Intern, Master's - Summer 2026 (Mountain View, CA)</t>
+          <t>AI/Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Mimecast</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mountain View, CA</t>
+          <t>Minneapolis, MN</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2861,25 +2861,25 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-intern-master-s-summer-2026-mountain-view-ca-at-linkedin-4334320888?position=11&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=Y3I1fjbQz9yxnuargRwkAg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-machine-learning-engineer-at-mimecast-4334105426?position=55&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=BthzsXX3%2Bb%2FwySH2zGtv4Q%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Junior Machine Learning Engineer</t>
+          <t>Artificial Intelligence/Machine Learning (AI/ML) Engineer</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ClearML</t>
+          <t>GliaCell Technologies</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>California, United States</t>
+          <t>Annapolis Junction, MD</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -2904,25 +2904,25 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/junior-machine-learning-engineer-at-clearml-4316501532?position=12&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=BtV%2Fd0JMwBDppQm4MfJ6%2FQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/artificial-intelligence-machine-learning-ai-ml-engineer-at-gliacell-technologies-4334380821?position=56&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=vNSIXzRzgmS8gRs5OVpCzQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AI/Machine Learning Engineer - Python | TheLoops</t>
+          <t>ML / Deep Learning Engineer</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>IFS</t>
+          <t>Waymo</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>Mountain View, CA</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2932,7 +2932,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -2947,25 +2947,25 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-machine-learning-engineer-python-theloops-at-ifs-4335088408?position=13&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=OP%2BfT7CFVoUIzn0rta2I0g%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ml-deep-learning-engineer-at-waymo-4315240585?position=57&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=ByX4%2FdhrS6kC3BBOmNCgTA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AI/Machine Learning Engineer</t>
+          <t>Data Scientist, New Graduate</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Synergy ECP</t>
+          <t>Duolingo for Schools</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Annapolis Junction, MD</t>
+          <t>Pittsburgh, PA</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2975,7 +2975,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -2990,25 +2990,25 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-machine-learning-engineer-at-synergy-ecp-4334278415?position=14&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=hZ5nWb0RvWQTvfU821i7Gw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-new-graduate-at-duolingo-for-schools-4314635620?position=58&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=eFQzLBQiFnIU0LXTWm2%2BaA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AI &amp; Machine Learning Engineer (Junior)</t>
+          <t>Data Scientist Intern</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ClickMint.com</t>
+          <t>ZPAC</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Malibu, CA</t>
+          <t>Carmel, IN</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3018,7 +3018,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3033,25 +3033,25 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-machine-learning-engineer-junior-at-clickmint-com-4321114564?position=16&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=KDjpSeDE0NvGVRqVEuXHTQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-intern-at-zpac-4320347360?position=59&amp;pageNum=0&amp;refId=g6dUbO6kvEtLPV4pqcOdhg%3D%3D&amp;trackingId=FNjbLYNa7MfhZv8ofoXQdQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Machine Learning Manager, Asset Generation DSE</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Baselayer</t>
+          <t>Netflix</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -3061,7 +3061,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-baselayer-4333828763?position=17&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=vgAZfMo2TL9WfRMSd4EjJg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-manager-asset-generation-dse-at-netflix-4069141226?position=5&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=VJ8pGwNAXBuH5bteEgWuCA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -3119,25 +3119,25 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-product-at-notion-4334327534?position=18&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=iUm3Rq1%2BjxbzT2Kg0ECzmA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-product-at-notion-4334357275?position=6&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=YAp9%2FYeV54sCPL%2FDxpmf6Q%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Neuroscientist</t>
+          <t>Data Science Intern - Year Round</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SWARM Biotactics</t>
+          <t>Charter Steel</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>Saukville, WI</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -3162,25 +3162,25 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/neuroscientist-at-swarm-biotactics-4333939717?position=19&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=576LahbljOxC6%2FZ43mR%2FtA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-science-intern-year-round-at-charter-steel-4337468355?position=7&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=eX71MpNlotEZrHgZl005ZQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Science Intern</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Opendorse</t>
+          <t>Calamos Investments</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Lincoln, NE</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -3205,25 +3205,25 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-opendorse-4337444305?position=22&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=4KwQv9969y%2Fl3WBhtWotnA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-science-intern-at-calamos-investments-4333968323?position=9&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=v%2FgMr%2BML1v6UH8Q688ZI7Q%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Virtual Data Analyst Full Time (100% Remote)</t>
+          <t>Junior AI/ML engineer</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>City Clusters</t>
+          <t>Daice Labs</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Richmond, VA</t>
+          <t>Boston, MA</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -3233,7 +3233,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3248,25 +3248,25 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/virtual-data-analyst-full-time-100%25-remote-at-city-clusters-4334968587?position=23&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=vqgIEopqcWBrkWks041jLg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/junior-ai-ml-engineer-at-daice-labs-4333568414?position=10&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=uGzA%2BpEvpD2zqSFcLX0s7w%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>AI/ML Engineer Intern, Master's - Summer 2026 (Mountain View, CA)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Toyota North America</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Plano, TX</t>
+          <t>Mountain View, CA</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -3276,7 +3276,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3291,25 +3291,25 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-toyota-north-america-4320766131?position=24&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=pw6%2FkN09mORzSubjTBdLPg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-intern-master-s-summer-2026-mountain-view-ca-at-linkedin-4334320888?position=12&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=3YDDVzOQDzbCjJswPWNTTw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Junior Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>The Bridger Group</t>
+          <t>ClearML</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Plainfield, NJ</t>
+          <t>California, United States</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -3319,7 +3319,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3334,25 +3334,25 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-analyst-at-the-bridger-group-4334049026?position=26&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=0m%2FgxC47vDIXbMNgtWwfQA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/junior-machine-learning-engineer-at-clearml-4316501532?position=13&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=tZ6mqBs2fKegiIixs17mZw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>AI/Machine Learning Engineer - Python | TheLoops</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RedCloud Consulting</t>
+          <t>IFS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Redmond, WA</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -3362,7 +3362,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3377,25 +3377,25 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-redcloud-consulting-4333989431?position=28&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=zH9tfzHZdR3E1XZfYTwR%2FA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-machine-learning-engineer-python-theloops-at-ifs-4335088408?position=14&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=z1%2Fzyeja20OK0Wg%2FHnPClQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Virtual Data Analyst Full Time (100% Remote)</t>
+          <t>AI/Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Pastene y Rojo Administradores</t>
+          <t>Synergy ECP</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Richmond, VA</t>
+          <t>Annapolis Junction, MD</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -3405,7 +3405,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3420,25 +3420,25 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/virtual-data-analyst-full-time-100%25-remote-at-pastene-y-rojo-administradores-4335058416?position=29&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=%2FU%2FHfe2%2FW%2BHq3Z0nHqzmjQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-machine-learning-engineer-at-synergy-ecp-4334278415?position=15&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=cRg09hdqAW5NAYG4QxV6pw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer - Inference / Serving</t>
+          <t>AI &amp; Machine Learning Engineer (Junior)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Yobi AI</t>
+          <t>ClickMint.com</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Malibu, CA</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -3448,7 +3448,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-inference-serving-at-yobi-ai-4334062431?position=34&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=CbrwwT%2BFibe%2BVmkayos58Q%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-machine-learning-engineer-junior-at-clickmint-com-4321114564?position=17&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=hYuMMS2pQRMhi0XBpW6XEg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Virtual Data Analyst Full Time (100% Remote)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>JLS ApS</t>
+          <t>Baselayer</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Florida, United States</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -3491,7 +3491,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -3506,25 +3506,25 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/virtual-data-analyst-full-time-100%25-remote-at-jls-aps-4334357843?position=35&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=YVzWZFFAuhyzfzjuLeC2sw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-baselayer-4333828763?position=18&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=EnesHBRdgGD9SbkN%2Fr6n0Q%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Scientist, Product</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Attain</t>
+          <t>Notion</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Redwood City, CA</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -3534,7 +3534,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -3549,25 +3549,25 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-attain-4334980502?position=36&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=zpKc7WCnbGBbc56HqntqWw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-product-at-notion-4334327534?position=19&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=xHuM6s94LUOOfTrWu1jvsA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Virtual Data Analyst Full Time (100% Remote)</t>
+          <t>Neuroscientist</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>JLS ApS</t>
+          <t>SWARM Biotactics</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Colorado, United States</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -3577,7 +3577,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -3592,25 +3592,25 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/virtual-data-analyst-full-time-100%25-remote-at-jls-aps-4334386655?position=37&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=hjTuleX5I3l4YTuGeAL4nQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/neuroscientist-at-swarm-biotactics-4333939717?position=20&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=vQWIy%2BOjtVeobCQms%2BAm8w%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Virtual Data Analyst Full Time (100% Remote)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JLS ApS</t>
+          <t>Opendorse</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>California, United States</t>
+          <t>Lincoln, NE</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -3620,7 +3620,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -3635,25 +3635,25 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/virtual-data-analyst-full-time-100%25-remote-at-jls-aps-4334159146?position=39&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=iTjgJz9GzkkJOaetF9tN0g%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-opendorse-4337444305?position=23&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=lVykiHSfvBM%2Bs4UUAl7p7Q%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Virtual Data Analyst Full Time (100% Remote)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JLS ApS</t>
+          <t>Toyota North America</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Pennsylvania, United States</t>
+          <t>Plano, TX</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -3678,25 +3678,25 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/virtual-data-analyst-full-time-100%25-remote-at-jls-aps-4334386654?position=40&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=7%2FdQyhVyhE9Xyy5DH%2FeLrw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-toyota-north-america-4320766131?position=24&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=1Eb%2B%2FYkONBFpcgXgSh31yw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Data Scientist, Remote</t>
+          <t>Virtual Data Analyst Full Time (100% Remote)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Experian</t>
+          <t>City Clusters</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Richmond, VA</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -3721,25 +3721,25 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-remote-at-experian-4334782281?position=41&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=wUuL1f%2B%2Belz%2B7COJx2JvBw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/virtual-data-analyst-full-time-100%25-remote-at-city-clusters-4334968587?position=25&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=CxkXUpn8%2BbUgQ%2FAl7oKXDA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AI/ML intern</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Daice Labs</t>
+          <t>The Bridger Group</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Boston, MA</t>
+          <t>Plainfield, NJ</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -3749,7 +3749,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -3764,25 +3764,25 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-intern-at-daice-labs-4335068941?position=42&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=luF1E1NF1PltjL6nVn2%2B%2FA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-analyst-at-the-bridger-group-4334049026?position=27&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=pwIRxoS6UpZqJ2oYFlNhZg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ProductNow</t>
+          <t>RedCloud Consulting</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Palo Alto, CA</t>
+          <t>Redmond, WA</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -3792,7 +3792,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -3807,25 +3807,25 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-productnow-4338043062?position=43&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=redF5zl2TmdsDCa6yso1UA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-redcloud-consulting-4333989431?position=29&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=hfOPgwMmr3brSaOmuqZLzQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Virtual Data Analyst Full Time (100% Remote)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Finch</t>
+          <t>Pastene y Rojo Administradores</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Richmond, VA</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -3835,7 +3835,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -3850,25 +3850,25 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-finch-4334233466?position=44&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=UgGkzYaUiL90Wq8lsN96KQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/virtual-data-analyst-full-time-100%25-remote-at-pastene-y-rojo-administradores-4335058416?position=30&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=hJR4bsL%2BIBH7Ayp4p9vRUA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Data Scientist, B2B Marketing</t>
+          <t>Machine Learning Engineer - Inference / Serving</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Notion</t>
+          <t>Yobi AI</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -3878,7 +3878,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -3893,25 +3893,25 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-b2b-marketing-at-notion-4334367150?position=45&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=nL6Chm%2FZ33YC8biS0u%2FWWg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-inference-serving-at-yobi-ai-4334062431?position=34&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=V6caPL3JYn75GEbLbUtz8A%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Virtual Data Analyst Full Time (100% Remote)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Accentuate Staffing</t>
+          <t>JLS ApS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Garner, NC</t>
+          <t>Florida, United States</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -3936,25 +3936,25 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-accentuate-staffing-4320583508?position=46&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=hZoyxgubu4nU9J7t4GuC6w%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/virtual-data-analyst-full-time-100%25-remote-at-jls-aps-4334357843?position=35&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=%2BgA1%2BcfnuN8T0jOo4zn%2F7Q%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Bioinformatics Scientist, Machine Learning</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SAGA Diagnostics</t>
+          <t>Attain</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Morrisville, NC</t>
+          <t>Redwood City, CA</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -3964,7 +3964,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -3979,25 +3979,25 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/bioinformatics-scientist-machine-learning-at-saga-diagnostics-4334229142?position=47&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=u%2BE7%2BhINI4o6KlOZZEdwJA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-attain-4334980502?position=36&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=RdRC9SD%2BZ2sPsejOIzKR3g%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Machine Learning Engineers (Remote, Continental United States)</t>
+          <t>Virtual Data Analyst Full Time (100% Remote)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ICA, Inc.</t>
+          <t>JLS ApS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Arlington, VA</t>
+          <t>Colorado, United States</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -4007,7 +4007,7 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4022,25 +4022,25 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineers-remote-continental-united-states-at-ica-inc-4321631255?position=48&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=M%2FYLNCQqkZbVfUkH2o2d9A%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/virtual-data-analyst-full-time-100%25-remote-at-jls-aps-4334386655?position=37&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=R5bLwD3Om0dvtVy6TC1XAA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Virtual Data Analyst Full Time (100% Remote)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Infosys</t>
+          <t>JLS ApS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Alpharetta, GA</t>
+          <t>California, United States</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -4050,7 +4050,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4065,25 +4065,25 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-infosys-4337437404?position=49&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=3oAkYh10fXyiw8PKYay7Vw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/virtual-data-analyst-full-time-100%25-remote-at-jls-aps-4334159146?position=39&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=PCh2DI3NZEBAVELg%2FTEVBA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AI/ML Scientist</t>
+          <t>Virtual Data Analyst Full Time (100% Remote)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Saragossa</t>
+          <t>JLS ApS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>San Mateo, CA</t>
+          <t>Pennsylvania, United States</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -4108,25 +4108,25 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-scientist-at-saragossa-4337941966?position=50&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=RA5w%2FlNgFeHkSvd9AkIHGg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/virtual-data-analyst-full-time-100%25-remote-at-jls-aps-4334386654?position=40&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=lG%2FAxvN8Xv2RCQ8V8Hc5nw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AI Engineer</t>
+          <t>AI/ML intern</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Gyde</t>
+          <t>Daice Labs</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Boston, MA</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -4136,7 +4136,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -4151,19 +4151,19 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-gyde-4334518514?position=51&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=WOArEqjfTBTuefVbfiFOug%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-intern-at-daice-labs-4335068941?position=41&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=QOaUri7B7EJ9oijXxr1AtQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Scientist, Remote</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Curate Partners</t>
+          <t>Experian</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4179,7 +4179,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -4194,25 +4194,25 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-curate-partners-4333999429?position=52&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=MxtWDX%2BpTJ4iQH08qxG73A%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-remote-at-experian-4334782281?position=42&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=E7f4qC5RnQ6An27FQNqJZQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AI / ML Engineer</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Trek Health</t>
+          <t>ProductNow</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>San Francisco Bay Area</t>
+          <t>Palo Alto, CA</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -4222,7 +4222,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -4237,19 +4237,19 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-at-trek-health-4320615617?position=53&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=Y63bB7nWy8BfYgpizTk2XQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-productnow-4338043062?position=43&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=gmRRnAjdw5pYPDCZJFDmTw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Founding Applied AI/ML Engineer</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Finch</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4265,7 +4265,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -4280,25 +4280,25 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/founding-applied-ai-ml-engineer-at-aurora-4333882475?position=54&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=lCU%2BaXEhxzJQmX%2BLHn9nBg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-finch-4334233466?position=44&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=9B%2FOPvYPYt3H7fidXcAsvg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Alternative Data Scientist, Miami</t>
+          <t>Data Scientist, B2B Marketing</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Thurn Partners</t>
+          <t>Notion</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -4308,7 +4308,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -4323,25 +4323,25 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/alternative-data-scientist-miami-at-thurn-partners-4337391934?position=55&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=eE%2B%2BsovfgyWThguIHCo1RQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-b2b-marketing-at-notion-4334367150?position=45&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=%2FATAg5KY28xd4%2FRKC5cz9w%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Alternative Data Scientist, New York</t>
+          <t>Bioinformatics Scientist, Machine Learning</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Thurn Partners</t>
+          <t>SAGA Diagnostics</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Morrisville, NC</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -4351,7 +4351,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -4366,25 +4366,25 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/alternative-data-scientist-new-york-at-thurn-partners-4337441127?position=56&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=DRlqWNg91PBZlRADcEuj8A%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/bioinformatics-scientist-machine-learning-at-saga-diagnostics-4334229142?position=46&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=tsJveLt3gW0XqHlqFlpgKg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Forecasting Analyst</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Carters Inc.</t>
+          <t>Accentuate Staffing</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Atlanta, GA</t>
+          <t>Garner, NC</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -4394,7 +4394,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -4409,25 +4409,25 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/forecasting-analyst-at-carters-inc-4333858772?position=57&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=iMKL1FK7QWuo0YqNWtxlPQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-accentuate-staffing-4320583508?position=47&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=teyCCO2jBOKcC9Xven1VDA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Machine Learning Scientist</t>
+          <t>Machine Learning Engineers (Remote, Continental United States)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>The New York Times</t>
+          <t>ICA, Inc.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Arlington, VA</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -4437,7 +4437,7 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -4452,25 +4452,25 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-scientist-at-the-new-york-times-4334653304?position=59&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=8iZWD0n9RhTwdCTVetLbhg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineers-remote-continental-united-states-at-ica-inc-4321631255?position=48&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=BdyNLTKNHEbhqCOPZWP%2Bew%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Client Success Expert (Remote)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>INFUSE</t>
+          <t>Infosys</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Alpharetta, GA</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -4495,25 +4495,25 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/client-success-expert-remote-at-infuse-4334350403?position=60&amp;pageNum=0&amp;refId=tRDdm0E904%2FITJQcvtV2bw%3D%3D&amp;trackingId=UbMf8KFCrOtNnFOs6%2BxFwQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-infosys-4337437404?position=49&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=Byd35W0PrwkTPz4ZYvCdlw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Applied AI/ML Engineer</t>
+          <t>AI/ML Scientist</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Replica</t>
+          <t>Saragossa</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>San Mateo, CA</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -4523,7 +4523,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/applied-ai-ml-engineer-at-replica-4300142232?position=2&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=VzNFbaruGtKXQ7S5Yrx%2BIA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-scientist-at-saragossa-4337941966?position=50&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=GYZUllg04gM%2Bx2KFu7HAAA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Computational Biologist, AI/ML</t>
+          <t>AI Engineer</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Biohub</t>
+          <t>Gyde</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4581,19 +4581,19 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/computational-biologist-ai-ml-at-biohub-4337858674?position=4&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=iCJg6T25Vse%2FA7kHOe2Tkw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-gyde-4334518514?position=51&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=8mGCqBbyfio2gznhRbVJqw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Data Scientist (L5) , Performance Marketing</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Curate Partners</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -4624,25 +4624,25 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-l5-performance-marketing-at-netflix-4313094719?position=6&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=CX8FX5PLJdG99VhsOK1dsg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-curate-partners-4333999429?position=52&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=AQ%2BbagBc8iczNViZ61TnZg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Data Scientist, New Graduate</t>
+          <t>AI / ML Engineer</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Duolingo for Schools</t>
+          <t>Trek Health</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA</t>
+          <t>San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -4652,7 +4652,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -4667,25 +4667,25 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-new-graduate-at-duolingo-for-schools-4314635620?position=9&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=P7rcLKpAWuv5nCgQexT02g%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-at-trek-health-4320615617?position=53&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=T6P%2FEeZqPuhZOoIft6ZSVQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Founding Applied AI/ML Engineer</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DISA Technologies, Inc.</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Casper, WY</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -4695,7 +4695,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -4710,25 +4710,25 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-disa-technologies-inc-4334328829?position=10&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=sagUQe1TgQw9NnU%2B6meQnA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/founding-applied-ai-ml-engineer-at-aurora-4333882475?position=54&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=VWVYsnLFRugxnXuNc2Zw%2BQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AI/ML developer</t>
+          <t>Alternative Data Scientist, Miami</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Saransh Inc</t>
+          <t>Thurn Partners</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Jersey City, NJ</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -4738,7 +4738,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -4753,25 +4753,25 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-developer-at-saransh-inc-4332071682?position=11&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=aaY%2BT%2FbZIJOMZcFtNCY9Zg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/alternative-data-scientist-miami-at-thurn-partners-4337391934?position=55&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=wy45dTaq2zycqX3SOKpSqA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Data Scientist, Applied AI - Remote</t>
+          <t>Alternative Data Scientist, New York</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Azumo</t>
+          <t>Thurn Partners</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -4781,7 +4781,7 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -4796,25 +4796,25 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-applied-ai-remote-at-azumo-4302282765?position=15&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=IgwyiZ3Hsu7sV7RImekxgw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/alternative-data-scientist-new-york-at-thurn-partners-4337441127?position=56&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=u2kThuOo4t2GfQyuNilevw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Forecasting Analyst</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ritual</t>
+          <t>Carters Inc.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Atlanta, GA</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -4824,7 +4824,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -4839,25 +4839,25 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-ritual-4308404408?position=16&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=AbVkbOGt0jYI4gm8LE6vFw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/forecasting-analyst-at-carters-inc-4333858772?position=57&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=jEowTtt3pjaqCsrJyrp7WQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Machine Learning Scientist</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Until</t>
+          <t>The New York Times</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -4882,19 +4882,19 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-until-4319987196?position=17&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=vLywzo%2Fi1L8AfWxvrWpSYA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-scientist-at-the-new-york-times-4334653304?position=59&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=YJjAqSp8kEXAAUnR%2BrjIVA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>AI Software Engineer (Generative AI) - Remote</t>
+          <t>Client Success Expert (Remote)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Azumo</t>
+          <t>INFUSE</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4910,7 +4910,7 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -4925,25 +4925,25 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-software-engineer-generative-ai-remote-at-azumo-4302292256?position=23&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=qoO5XtuOduevb8ro%2F69ieQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/client-success-expert-remote-at-infuse-4334350403?position=60&amp;pageNum=0&amp;refId=BV5AlwBjklv%2FaFD%2Bb3IEVQ%3D%3D&amp;trackingId=Z8RJt9Vk2zZLpU3cvkCZ3A%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Scientist - Retail Media</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Juul Labs</t>
+          <t>H-E-B</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -4953,7 +4953,7 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -4968,25 +4968,25 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-juul-labs-4312757731?position=24&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=KrtkcHY5c1YsGVgiiV1aSQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-retail-media-at-h-e-b-4320535210?position=5&amp;pageNum=0&amp;refId=zxnZUjTJbhq%2BTaO%2B3girXA%3D%3D&amp;trackingId=6WWtIT4HwfRNLfbvdb8Cig%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Applied AI/ML Engineer</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>IUNU</t>
+          <t>Replica</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -4996,7 +4996,7 @@
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -5011,19 +5011,19 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-iunu-4314897206?position=25&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=h02w0FVZY%2B4id6GDPknEwA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/applied-ai-ml-engineer-at-replica-4300142232?position=2&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=Aus6dZD1QpRzWzg0kPxTVQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, Predict</t>
+          <t>Computational Biologist, AI/ML</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Alloy</t>
+          <t>Biohub</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -5039,7 +5039,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -5054,25 +5054,25 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-predict-at-alloy-4310222713?position=27&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=rITCa52G6qc%2Bi7%2BPwsYt3A%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/computational-biologist-ai-ml-at-biohub-4337858674?position=4&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=N7y946tr%2BDDCY4Urgg6v%2BQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, Robot Learning</t>
+          <t>Data Scientist (L5) , Performance Marketing</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Path Robotics</t>
+          <t>Netflix</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Columbus, OH</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -5082,7 +5082,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -5097,25 +5097,25 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-robot-learning-at-path-robotics-4332997476?position=28&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=2gtlJkCN9BdMXo6DLBMvHw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-l5-performance-marketing-at-netflix-4313094719?position=6&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=uovAqbNrJAFu91coKqjS9Q%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Data Scientist (Junior - Senior)</t>
+          <t>AI/ML Engineer</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Clear Ridge Defense</t>
+          <t>Burq</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Wahiawa, HI</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -5125,7 +5125,7 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -5140,25 +5140,25 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-junior-senior-at-clear-ridge-defense-4332968186?position=29&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=nTqF6Uq%2FBtBoO5Iosyzxcg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-at-burq-4295957465?position=7&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=pI9sb43XklYak1gsDFplow%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Data Scientist/AI</t>
+          <t>AI/ML developer</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Accroid Inc</t>
+          <t>Saransh Inc</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Hartford, CT</t>
+          <t>Jersey City, NJ</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -5168,7 +5168,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -5183,19 +5183,19 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-ai-at-accroid-inc-4293649628?position=30&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=YbOsERRen1G9HpNbMz6wXw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-developer-at-saransh-inc-4332071682?position=12&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=Bwdo3psrlHic8vJ4R7h%2BFw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Machine Learning (ML) Engineer</t>
+          <t>Data Scientist, Applied AI - Remote</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Vectara</t>
+          <t>Azumo</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -5211,7 +5211,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -5226,25 +5226,25 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-ml-engineer-at-vectara-4333329331?position=31&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=jpIODAn%2B7suY8F6%2F%2BO7lwg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-applied-ai-remote-at-azumo-4302282765?position=16&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=0qYuCIzWjWaQ2OyGK803fw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>AI Scientist/Engineer, Model Training</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Conquest</t>
+          <t>Ritual</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Palo Alto, CA</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -5254,7 +5254,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -5269,25 +5269,25 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-scientist-engineer-model-training-at-conquest-4318505558?position=32&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=EaTasjx53%2BwklqNV1ZTrVg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-ritual-4308404408?position=17&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=l3GjjNQ6H90c%2B%2Fb0rjTExA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Rokt</t>
+          <t>Until</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -5297,7 +5297,7 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -5312,25 +5312,25 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-rokt-4313388815?position=33&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=VUqdo40qtLMxacupHnM3KA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-until-4319987196?position=18&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=AoSA27yaUB92YHouQaL47w%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Data Scientist, New Graduate</t>
+          <t>AI Software Engineer (Generative AI) - Remote</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Duolingo</t>
+          <t>Azumo</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -5340,7 +5340,7 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -5355,25 +5355,25 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-new-graduate-at-duolingo-4300907678?position=35&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=fzwXBYxcF4JiE7qc6UXieg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-software-engineer-generative-ai-remote-at-azumo-4302292256?position=24&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=UcCoKkMKTiLiFrbBT%2F1FHQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AI Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MLabs</t>
+          <t>Juul Labs</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -5383,7 +5383,7 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-mlabs-4310160204?position=36&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=fWRcGfCM%2FaGdV3Fx3Axh0Q%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-juul-labs-4312757731?position=25&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=eldJQJFJa9WO0BVbC95FsQ%3D%3D</t>
         </is>
       </c>
     </row>
@@ -5410,13 +5410,13 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Mariana Minerals</t>
+          <t>IUNU</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>Seattle, WA</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -5426,7 +5426,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -5441,19 +5441,19 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-mariana-minerals-4318298872?position=37&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=dkueMVuYaHXwub2wx9Zb%2Fg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-iunu-4314897206?position=26&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=IPYB8Ltyv0hWByXkDIftKg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Machine Learning Engineer, Predict</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MLabs</t>
+          <t>Alloy</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5469,7 +5469,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -5484,25 +5484,25 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-mlabs-4310155338?position=38&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=oj1XexECFk7lEhQm2OFp1A%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-predict-at-alloy-4310222713?position=28&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=sJbYFBHNJMJ0hfawtsh4Bg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ML / Deep Learning Engineer</t>
+          <t>Machine Learning Engineer, Robot Learning</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Waymo</t>
+          <t>Path Robotics</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Mountain View, CA</t>
+          <t>Columbus, OH</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -5512,7 +5512,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ml-deep-learning-engineer-at-waymo-4315240585?position=39&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=zOMhwPcvpaBE1b0gD49zOg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-robot-learning-at-path-robotics-4332997476?position=29&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=RBmm3MOz1EqNY4yEAlrGXg%3D%3D</t>
         </is>
       </c>
     </row>
@@ -5545,7 +5545,7 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Colorado Springs, CO</t>
+          <t>Wahiawa, HI</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -5570,25 +5570,25 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-junior-senior-at-clear-ridge-defense-4333117796?position=41&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=4ZhrSFCIkEySS3pAlvJPmA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-junior-senior-at-clear-ridge-defense-4332968186?position=30&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=%2FndpoG33wMFn1WXmm1t7zQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Applied AI / ML Engineer</t>
+          <t>Data Scientist/AI</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Catalyst Labs</t>
+          <t>Accroid Inc</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Cupertino, CA</t>
+          <t>Hartford, CT</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -5598,7 +5598,7 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -5613,25 +5613,25 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/applied-ai-ml-engineer-at-catalyst-labs-4315220786?position=43&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=Jud7fBWEiqPmE0LILWe5XQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-ai-at-accroid-inc-4293649628?position=31&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=vDeQSz1MQ6wK4ef4uima7A%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Machine Learning (ML) Engineer</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Spear AI</t>
+          <t>Vectara</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Washington, DC</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -5641,7 +5641,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -5656,25 +5656,25 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-spear-ai-4332416985?position=44&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=PZMxQpi4S3E5n5wKGAbv%2Bw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-ml-engineer-at-vectara-4333329331?position=32&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=wzMdv%2B4yny0%2F8a82SwPg8g%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>AI Scientist/Engineer, Model Training</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FanDuel</t>
+          <t>Conquest</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Palo Alto, CA</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -5684,7 +5684,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -5699,25 +5699,25 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-fanduel-4310741174?position=45&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=GoeXMnz7gKqB551Aqd7ywA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-scientist-engineer-model-training-at-conquest-4318505558?position=33&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=4P9s%2BJUhxce34rIGf9OlZA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AI &amp; Machine Learning Engineer (Multiple Roles, Remote &amp; On-Site)</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MLabs</t>
+          <t>Rokt</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Seattle, WA</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -5727,7 +5727,7 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -5742,25 +5742,25 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-machine-learning-engineer-multiple-roles-remote-on-site-at-mlabs-4310884433?position=46&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=GkXFQj8JZXQqdunTWbPFEg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-rokt-4313388815?position=34&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=PE%2Fa%2FdrP%2B39vEvax6NkIbg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Data Scientist (Junior - Senior)</t>
+          <t>Data Scientist, New Graduate</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Clear Ridge Defense</t>
+          <t>Duolingo</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Fort Gordon, GA</t>
+          <t>Pittsburgh, PA</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -5770,7 +5770,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -5785,19 +5785,19 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-junior-senior-at-clear-ridge-defense-4332968062?position=47&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=FTG6f54UMIIAXpuU8Avs9w%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-new-graduate-at-duolingo-4300907678?position=36&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=gLtj2wsmVTCjWG2oMCLWqg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>AI Engineer</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Mercor</t>
+          <t>MLabs</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5813,7 +5813,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -5828,25 +5828,25 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-mercor-4318536937?position=48&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=eqaA7BH4DJzNP62CGFaqUg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-engineer-at-mlabs-4310160204?position=37&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=6SHdsmPanaJoM59rUwVQCA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>AI/ML Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NODA AI</t>
+          <t>MLabs</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Austin, TX</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -5856,7 +5856,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -5871,25 +5871,25 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-at-noda-ai-4318513221?position=49&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=7SZEvo7fk%2Bgz4VFqpz81FA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-mlabs-4310155338?position=39&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=4GOJZ1wPOT29yWHqr2mk9Q%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Applied AI / ML Engineer</t>
+          <t>Data Scientist (Junior - Senior)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Catalyst Labs</t>
+          <t>Clear Ridge Defense</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>California, United States</t>
+          <t>Colorado Springs, CO</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -5899,7 +5899,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -5914,25 +5914,25 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/applied-ai-ml-engineer-at-catalyst-labs-4315226074?position=50&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=ulsE4oGobV%2Bw57zx1V9AVA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-junior-senior-at-clear-ridge-defense-4333117796?position=42&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=F%2F8TnKLDigIHYUX4L5SYXg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>AI Software Engineer</t>
+          <t>Applied AI / ML Engineer</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Telestream</t>
+          <t>Catalyst Labs</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Cupertino, CA</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -5942,7 +5942,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-software-engineer-at-telestream-4319098396?position=51&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=CDf4oVznoHGYQa%2B6qgq2YQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/applied-ai-ml-engineer-at-catalyst-labs-4315220786?position=44&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=8PI41FMch5hsGE18LIHZYg%3D%3D</t>
         </is>
       </c>
     </row>
@@ -5969,13 +5969,13 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Blank Bio (YC S25)</t>
+          <t>Spear AI</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>Washington, DC</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -5985,7 +5985,7 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-blank-bio-yc-s25-4311229212?position=52&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=jDhVbUKQoOZmTXfxRh0zSg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-spear-ai-4332416985?position=45&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=Gmqjvvn9D0JcJECXNiXXWw%3D%3D</t>
         </is>
       </c>
     </row>
@@ -6012,13 +6012,13 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Amicus</t>
+          <t>FanDuel</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Texas, United States</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -6043,25 +6043,25 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-amicus-4314176120?position=54&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=EPwnhB84jTVNBRryHGTrvw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-fanduel-4310741174?position=46&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=hO4VaHZJ6H4iffh3vWJncA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Data Scientist &amp; Machine Learning Engineer</t>
+          <t>AI &amp; Machine Learning Engineer (Multiple Roles, Remote &amp; On-Site)</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Finia AI</t>
+          <t>MLabs</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>San Mateo, CA</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -6071,7 +6071,7 @@
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -6086,25 +6086,25 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-machine-learning-engineer-at-finia-ai-4305743848?position=55&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=Gd6Tjrs4z%2BVINingvk30aw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-machine-learning-engineer-multiple-roles-remote-on-site-at-mlabs-4310884433?position=47&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=k%2BHeNKe4NUppF6J%2B52fR%2Fw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Data Scientist (Junior - Senior)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Senseye, Inc.</t>
+          <t>Clear Ridge Defense</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Austin, TX</t>
+          <t>Fort Gordon, GA</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -6129,25 +6129,25 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-senseye-inc-4333018112?position=56&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=j1ddSAAc%2FCcQq6piOsQBgQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-junior-senior-at-clear-ridge-defense-4332968062?position=48&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=ms8O81HUaJP%2Fkt4EyQVGWg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Data Scientist, New Graduate</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>HeyGen</t>
+          <t>Mercor</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -6157,7 +6157,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -6172,25 +6172,25 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-new-graduate-at-heygen-4316015082?position=57&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=MRhjIjqeqiKojfYB54XQpA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-mercor-4318536937?position=49&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=QoxRAUq5F9QWSDTQlTAE4Q%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>AI/ML Engineer</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Tagup, Inc.</t>
+          <t>NODA AI</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT</t>
+          <t>Austin, TX</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -6200,7 +6200,7 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -6215,25 +6215,25 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-tagup-inc-4296471581?position=58&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=uAXQZZnIpmMCTp1doJdkCg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-at-noda-ai-4318513221?position=50&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=1huBEkob2cdsPtBJCAcOaw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>AI &amp; Machine Learning Engineer (Multiple Roles, Remote &amp; On-Site)</t>
+          <t>Applied AI / ML Engineer</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MLabs</t>
+          <t>Catalyst Labs</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>California, United States</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -6243,7 +6243,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -6258,25 +6258,25 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-machine-learning-engineer-multiple-roles-remote-on-site-at-mlabs-4310880438?position=59&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=ZV7mvaLonMwbTb2YRKsQmg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/applied-ai-ml-engineer-at-catalyst-labs-4315226074?position=51&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=x4lJj5IDW49R6vg9Q00S1A%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, Safety</t>
+          <t>AI Software Engineer</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>xAI</t>
+          <t>Telestream</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Palo Alto, CA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -6286,7 +6286,7 @@
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -6301,25 +6301,25 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-safety-at-xai-4314176763?position=60&amp;pageNum=0&amp;refId=18CVajCeUdgbVrvP8SrYQg%3D%3D&amp;trackingId=VB8JUs4ewKkt%2B9J41dP2yA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-software-engineer-at-telestream-4319098396?position=52&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=l18hv7Ry2XcsLsMRmtIvnw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>NLP Engineer</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Pozent Corporation</t>
+          <t>Blank Bio (YC S25)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>South Plainfield, NJ</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -6329,7 +6329,7 @@
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -6344,25 +6344,25 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/nlp-engineer-at-pozent-corporation-4309352185?position=2&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=cJH4wC2OGIiUN7YSk4HRIw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-blank-bio-yc-s25-4311229212?position=53&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=Irqvqoq%2BXFHXcsrjFcrBpA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>NLP Engineer</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Trunk Tools</t>
+          <t>Amicus</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Texas, United States</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -6372,7 +6372,7 @@
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -6387,25 +6387,25 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/nlp-engineer-at-trunk-tools-4318515127?position=3&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=htKf4BF6r9H4FSiFUsoC8A%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-amicus-4314176120?position=55&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=PUKUlqSCAMdj3KNF2oKeFg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Data Scientist (L5) - Customer Service</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Senseye, Inc.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Austin, TX</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -6415,7 +6415,7 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -6430,19 +6430,19 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-l5-customer-service-at-netflix-4231868796?position=4&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=w%2FfAtWge%2F47vcc6C3lRsNg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-senseye-inc-4333018112?position=56&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=0swwI7I8y9Ve2Am9LKmTdA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Software Engineer, NLP/Machine Learning</t>
+          <t>Data Scientist &amp; Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>WisdomAI</t>
+          <t>Finia AI</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6458,7 +6458,7 @@
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -6473,25 +6473,25 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/software-engineer-nlp-machine-learning-at-wisdomai-4317070119?position=5&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=4OCXYUeDJaYfvLwp9txRGA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-machine-learning-engineer-at-finia-ai-4305743848?position=57&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=J%2FqNSj7A0sWU3oqVvVhJXw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>AI / ML Engineer OR Data Scientist</t>
+          <t>Data Scientist, New Graduate</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Veracity Software Inc</t>
+          <t>HeyGen</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Iselin, NJ</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -6501,7 +6501,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -6516,25 +6516,25 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-or-data-scientist-at-veracity-software-inc-4260309062?position=8&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=fw8XKrQSrfnwNfLclnTkNw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-new-graduate-at-heygen-4316015082?position=58&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=sbvrPrz7lJmp1Ep1UqGZRQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>NLP Research Scientist</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>Tagup, Inc.</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Palo Alto, CA</t>
+          <t>Salt Lake City, UT</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -6544,7 +6544,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -6559,25 +6559,25 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/nlp-research-scientist-at-oppo-4282140047?position=9&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=dmRi0epGr3IDFfIdsf1y%2FA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-tagup-inc-4296471581?position=59&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=cabY08RLF9d6gIYn2xuJAw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>AI/ML Engineer</t>
+          <t>AI &amp; Machine Learning Engineer (Multiple Roles, Remote &amp; On-Site)</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Burq</t>
+          <t>MLabs</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -6587,7 +6587,7 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -6602,25 +6602,25 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-at-burq-4295957465?position=10&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=fcYlh2LmMp7Kk%2BU12cqLcg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-machine-learning-engineer-multiple-roles-remote-on-site-at-mlabs-4310880438?position=60&amp;pageNum=0&amp;refId=f6YBzqwFOkeTUE%2BFO1q%2BzA%3D%3D&amp;trackingId=ke4Wf3JRRg9kP%2Fn%2FGS7Qig%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Consultant (LLM/AI Skillset)</t>
+          <t>AI / Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>evolv Consulting</t>
+          <t>1Kosmos</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Iselin, NJ</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -6630,7 +6630,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -6645,25 +6645,25 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/consultant-llm-ai-skillset-at-evolv-consulting-4299473080?position=11&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=45O565fTodPebAwcdIBvkw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-machine-learning-engineer-at-1kosmos-4286217794?position=12&amp;pageNum=0&amp;refId=aMjAaKOz1gfu20KdVGfRAA%3D%3D&amp;trackingId=6M6jDk27T6s9Xv5U0vhhbQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ML Engineer - NLP</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Avoma</t>
+          <t>Verneek</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Palo Alto, CA</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -6673,7 +6673,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -6688,25 +6688,25 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ml-engineer-nlp-at-avoma-4239918505?position=12&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=YShYZX9veeuJn%2BspHsJErw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-verneek-4287745728?position=28&amp;pageNum=0&amp;refId=aMjAaKOz1gfu20KdVGfRAA%3D%3D&amp;trackingId=435nmYFKXDd%2Fgsu0UW51bw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Applied NLP Engineer</t>
+          <t>Data Scientist (L5) - Mobile &amp; Search</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Unwrap</t>
+          <t>Netflix</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Santa Barbara, CA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -6716,7 +6716,7 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -6731,25 +6731,25 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/applied-nlp-engineer-at-unwrap-4318518015?position=13&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=Xj1mClII7xZncNRCnVjzMg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-l5-mobile-search-at-netflix-4288811212?position=29&amp;pageNum=0&amp;refId=aMjAaKOz1gfu20KdVGfRAA%3D%3D&amp;trackingId=cj1oIVO391BRnw0KF8392A%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Machine Learning (NLP) Engineer</t>
+          <t>NLP Engineer</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>VTI Aerospace</t>
+          <t>Pozent Corporation</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>South Plainfield, NJ</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
@@ -6759,7 +6759,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -6774,19 +6774,19 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-nlp-engineer-at-vti-aerospace-4320102026?position=16&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=DLbjaPexmt9ocoupi6Mgug%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/nlp-engineer-at-pozent-corporation-4309352185?position=2&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=MBb7Jdve8NfoTc0P0tUdJw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>AI/Machine Learning Engineer</t>
+          <t>NLP Engineer</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Trovo Health</t>
+          <t>Trunk Tools</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6802,7 +6802,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -6817,25 +6817,25 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-machine-learning-engineer-at-trovo-health-4245598024?position=17&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=K9jsbNaINZc9tYn2d8kSXw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/nlp-engineer-at-trunk-tools-4318515127?position=3&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=b1CASn68EL%2FD5dWZByAo%2BA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Data Scientist - AI, ML, NLP Developer</t>
+          <t>Data Scientist (L5) - Customer Service</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Rule14 LLC</t>
+          <t>Netflix</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -6845,7 +6845,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -6860,25 +6860,25 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-ai-ml-nlp-developer-at-rule14-llc-4252198099?position=20&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=b4xFyCy5tHHdBai%2BfRyudg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-l5-customer-service-at-netflix-4231868796?position=4&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=7N7idZBJjRQiCjWd430h0w%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>NLP Engineer</t>
+          <t>Software Engineer, NLP/Machine Learning</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Point72</t>
+          <t>WisdomAI</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>New York, United States</t>
+          <t>San Mateo, CA</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -6888,7 +6888,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -6903,25 +6903,25 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/nlp-engineer-at-point72-4241523109?position=21&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=JOKp5V5DfCI5A%2BdwkAJBFA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-nlp-machine-learning-at-wisdomai-4317070119?position=5&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=XoAPzRlTcmYHkggsILOk1Q%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Data Scientist (L5) - Mobile &amp; Search</t>
+          <t>AI / ML Engineer OR Data Scientist</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Veracity Software Inc</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Iselin, NJ</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -6931,7 +6931,7 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -6946,25 +6946,25 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-l5-mobile-search-at-netflix-4288811212?position=22&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=a%2BbdKE5OzvNwDZstTaZkpw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-or-data-scientist-at-veracity-software-inc-4260309062?position=8&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=A6cDqOmQDxDDITwo5eaT6g%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>NLP/Machine Learning Intern (Summer)</t>
+          <t>NLP Research Scientist</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>WisdomAI</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>San Mateo, CA</t>
+          <t>Palo Alto, CA</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -6974,7 +6974,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -6989,25 +6989,25 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/nlp-machine-learning-intern-summer-at-wisdomai-4304436081?position=23&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=bXermBh0wO3COhmJn8zQyA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/nlp-research-scientist-at-oppo-4282140047?position=9&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=OOpiDlTQBTtp7YMDncPV7Q%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Machine Learning: Natural Language Processing Engineer</t>
+          <t>Consultant (LLM/AI Skillset)</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Primordial Labs</t>
+          <t>evolv Consulting</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>New Haven, CT</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -7017,7 +7017,7 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -7032,25 +7032,25 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-natural-language-processing-engineer-at-primordial-labs-4307395491?position=25&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=uBwL4yUur8DLv%2FJOPFHsuQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/consultant-llm-ai-skillset-at-evolv-consulting-4299473080?position=11&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=%2F%2FGw4R2NRMr64Ai3drZdgA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>AI/ML Software Engineer</t>
+          <t>ML Engineer - NLP</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Pointer Technologies</t>
+          <t>Avoma</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Annapolis Junction, MD</t>
+          <t>Palo Alto, CA</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -7060,7 +7060,7 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -7075,25 +7075,25 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-software-engineer-at-pointer-technologies-4119093334?position=27&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=W9C7aAoXjno99nNET2Cv1w%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ml-engineer-nlp-at-avoma-4239918505?position=12&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=4mmie7ZqFu9Ym7NCZIkNIw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Data Scientists - All Levels</t>
+          <t>Applied NLP Engineer</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ModMed</t>
+          <t>Unwrap</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>Santa Barbara, CA</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -7103,7 +7103,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -7118,25 +7118,25 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientists-all-levels-at-modmed-4305155658?position=29&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=ueOxwR1LX1vAV2mwYxrIvA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/applied-nlp-engineer-at-unwrap-4318518015?position=13&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=O%2By4mpbR7lNXTOgegiwbKQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Junior AI Engineer</t>
+          <t>Machine Learning (NLP) Engineer</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Q-Centrix</t>
+          <t>VTI Aerospace</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Seattle, WA</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -7161,25 +7161,25 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/junior-ai-engineer-at-q-centrix-4158297234?position=30&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=OFpKsmCOamJ1A6QCIi9otw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-nlp-engineer-at-vti-aerospace-4320102026?position=16&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=MNH89N%2F4dS6MktxgD9%2Fl9g%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>AI/Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Analytica</t>
+          <t>Trovo Health</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Washington, DC</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -7189,7 +7189,7 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -7204,25 +7204,25 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-analytica-4314388225?position=34&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=8zmPYQxdiXOMZNLrfmUSFQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-machine-learning-engineer-at-trovo-health-4245598024?position=17&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=34lTQbbjcmraA7z75fuOtw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Data Scientist - AI, ML, NLP Developer</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Verneek</t>
+          <t>Rule14 LLC</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -7232,7 +7232,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>2025-08-17</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-verneek-4287745728?position=35&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=OXrAcEP6GQ%2FPfh7f03XyRQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-ai-ml-nlp-developer-at-rule14-llc-4252198099?position=20&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=%2BTTZ1cRdO0dZGdO0NabXTQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Machine Learning Research Scientist</t>
+          <t>NLP Engineer</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>GroupSolver</t>
+          <t>Point72</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>New York, United States</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -7275,7 +7275,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -7290,25 +7290,25 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-research-scientist-at-groupsolver-4121963593?position=36&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=UkcJk3f2OYE6xJ7V%2F3EAyw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/nlp-engineer-at-point72-4241523109?position=21&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=SiiEj1DCB79%2BISK0lNyRnw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>NLP/Machine Learning Intern (Summer)</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Actifai</t>
+          <t>WisdomAI</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Washington, DC</t>
+          <t>San Mateo, CA</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -7318,7 +7318,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -7333,25 +7333,25 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-actifai-4258218182?position=38&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=0VfuE58f5agfNGmwhxF4Nw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/nlp-machine-learning-intern-summer-at-wisdomai-4304436081?position=23&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=miuELcsYe%2FeFkVoDCblKrA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>AI Researcher, Core ML</t>
+          <t>Machine Learning: Natural Language Processing Engineer</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Together AI</t>
+          <t>Primordial Labs</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>New Haven, CT</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -7361,7 +7361,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -7376,25 +7376,25 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-researcher-core-ml-at-together-ai-3959593877?position=40&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=MK754EzdT%2BsUxh0dG9%2BTIg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-natural-language-processing-engineer-at-primordial-labs-4307395491?position=25&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=X7iCZqiBsltWdq19sUxeQg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Data Scientist, Intern</t>
+          <t>AI/ML Software Engineer</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Duolingo</t>
+          <t>Pointer Technologies</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA</t>
+          <t>Annapolis Junction, MD</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -7404,7 +7404,7 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -7419,25 +7419,25 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-intern-at-duolingo-4300902755?position=42&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=n4bYUVNCRUNdcVfNiAjBCA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-software-engineer-at-pointer-technologies-4119093334?position=27&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=z%2FB7Qc%2FUf8q4yvo8I1iR5A%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>AI Developer Natural Language Processing Machine Learning AWS</t>
+          <t>Data Scientists - All Levels</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Accord Technologies Inc</t>
+          <t>ModMed</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -7462,25 +7462,25 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-developer-natural-language-processing-machine-learning-aws%C2%A0-at-accord-technologies-inc-4312097492?position=44&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=Q1jcoqWT%2Br7%2F6DwSmpERJg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientists-all-levels-at-modmed-4305155658?position=29&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=RfdAuLkZwsgu8M13AlQUYQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Machine Learning - Artificial Intelligence SME - ML, Innovation</t>
+          <t>Junior AI Engineer</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Erias Ventures</t>
+          <t>Q-Centrix</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Annapolis Junction, MD</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -7490,7 +7490,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-artificial-intelligence-sme-ml-innovation-at-erias-ventures-4250722772?position=45&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=5QTeJD8mZaL12%2FunKqqCAQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/junior-ai-engineer-at-q-centrix-4158297234?position=30&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=99jjHTZ4kzo53UquqyqgXA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -7517,13 +7517,13 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Boosted.ai</t>
+          <t>Analytica</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Washington, DC</t>
         </is>
       </c>
       <c r="E165" t="inlineStr"/>
@@ -7533,7 +7533,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -7548,25 +7548,25 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-boosted-ai-4305143639?position=46&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=OQA5sZANvoisamRoTmKm6w%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-analytica-4314388225?position=34&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=bwCOdSUwWxyzrGcQtdZ3uQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Data Scientist, Research</t>
+          <t>Machine Learning Research Scientist</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Dstillery</t>
+          <t>GroupSolver</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
@@ -7576,7 +7576,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-research-at-dstillery-4277209603?position=47&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=U3H4lJgJq7Sc%2BoofDdix1g%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-research-scientist-at-groupsolver-4121963593?position=36&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=%2F9gsP9pOI5sjC6fsLvpD%2Fw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Data Scientist - Data-Driven Global Investment Firm</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Andiamo</t>
+          <t>Actifai</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Washington, DC</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -7619,7 +7619,7 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -7634,25 +7634,25 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-data-driven-global-investment-firm-at-andiamo-4306618897?position=48&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=DMx0dBIfUcsbfdiAAoHh2g%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-actifai-4258218182?position=38&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=6LBq11Nam7AbzyNEWgHtRQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>AI Specialist</t>
+          <t>AI Researcher, Core ML</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Together AI</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>California, United States</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -7662,7 +7662,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -7677,25 +7677,25 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-specialist-at-crypto-com-4312258334?position=49&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=B8DX8ee2sDDlmEvE%2FXvqsA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-researcher-core-ml-at-together-ai-3959593877?position=40&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=KdxCBvI6oBGf5oVNlCFDUA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>AI/ML Engineer</t>
+          <t>Data Scientist, Intern</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Brain Co.</t>
+          <t>Duolingo</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>San Francisco Bay Area</t>
+          <t>Pittsburgh, PA</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -7705,7 +7705,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -7720,25 +7720,25 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-at-brain-co-4275844846?position=50&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=cufq6FvXlUFu8wVpsy3SXQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-intern-at-duolingo-4300902755?position=42&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=BUaHS9RFdzRhdQl4NmWiUA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Data Scientist (L5) - Ads (Forecasting)</t>
+          <t>AI Developer Natural Language Processing Machine Learning AWS</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Accord Technologies Inc</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -7748,7 +7748,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -7763,25 +7763,25 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-l5-ads-forecasting-at-netflix-4246037078?position=51&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=%2Frm0ebsl5MnJTjenq2hK4Q%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-developer-natural-language-processing-machine-learning-aws%C2%A0-at-accord-technologies-inc-4312097492?position=44&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=a37E4O18DmSPUS6chKtXvA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Jr. Data Scientist</t>
+          <t>Machine Learning - Artificial Intelligence SME - ML, Innovation</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>The Dignify Solutions, LLC</t>
+          <t>Erias Ventures</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Raritan, NJ</t>
+          <t>Annapolis Junction, MD</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
@@ -7791,7 +7791,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -7806,25 +7806,25 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/jr-data-scientist-at-the-dignify-solutions-llc-4317671813?position=52&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=jDI7ckIyUdQaNAy6cEc3uA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-artificial-intelligence-sme-ml-innovation-at-erias-ventures-4250722772?position=45&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=qYRfGIqR%2FD95qHpD1S62cA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>AI/ML Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SIDRAM TECHNOLOGIES</t>
+          <t>Boosted.ai</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
@@ -7834,7 +7834,7 @@
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -7849,25 +7849,25 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-at-sidram-technologies-4267261993?position=53&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=JsdVy9RwkLJSnH9N8PTHhw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-boosted-ai-4305143639?position=46&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=6LygPg1q4xSskp0Ib%2FLIBQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>AI/ML Engineer 🧠 (LLM Optimization &amp; AI-Driven Workflows)</t>
+          <t>Data Scientist, Research</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Legion Health</t>
+          <t>Dstillery</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -7877,7 +7877,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -7892,25 +7892,25 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-%F0%9F%A7%A0-llm-optimization-ai-driven-workflows-at-legion-health-4147155685?position=54&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=bRp9uo1ZxRmtMCOB6wxwwg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-research-at-dstillery-4277209603?position=47&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=BBIdeNkvDa%2F3AvyWCW%2FmUg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Junior Data Scientist</t>
+          <t>Data Scientist - Data-Driven Global Investment Firm</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Kforce Inc</t>
+          <t>Andiamo</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Palm Beach Gardens, FL</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
@@ -7920,7 +7920,7 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -7935,25 +7935,25 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/junior-data-scientist-at-kforce-inc-4311716695?position=56&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=8%2FOCerH8RWo%2BwSbwK0%2BfTQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-data-driven-global-investment-firm-at-andiamo-4306618897?position=48&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=fUUZmT8Lbcq9dgbsAks8gQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Data Scientist (Remote)</t>
+          <t>AI Specialist</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Elder Research</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Arlington, VA</t>
+          <t>California, United States</t>
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
@@ -7978,25 +7978,25 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-remote-at-elder-research-3921376611?position=59&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=6%2Ff2dXUio%2BmJh1Q4IlT1EQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-specialist-at-crypto-com-4312258334?position=49&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=GfchAHkaT6QXMpgW9Ythug%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Data Scientist - All Levels</t>
+          <t>AI/ML Engineer</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Interclypse</t>
+          <t>Brain Co.</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>San Antonio, TX</t>
+          <t>San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -8006,7 +8006,7 @@
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -8021,25 +8021,25 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-all-levels-at-interclypse-4251237886?position=60&amp;pageNum=0&amp;refId=93AMv3VoPeEmLNJdIJXDHg%3D%3D&amp;trackingId=k32pBdpFCYnY3kkrNKtyYA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-at-brain-co-4275844846?position=50&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=Rmbb%2BxXgeKYJ%2B7oKjw0QTg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>decision scientist - Data &amp; Analytics  (Seattle,WA)</t>
+          <t>Data Scientist (L5) - Ads (Forecasting)</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Starbucks</t>
+          <t>Netflix</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -8049,7 +8049,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -8064,25 +8064,25 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/decision-scientist-data-analytics-seattle-wa-at-starbucks-4321470083?position=7&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=ZdsRGiA1%2BABx1OwHgijryQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-l5-ads-forecasting-at-netflix-4246037078?position=51&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=fEDY19JXO4zuI4kysDew8w%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Jr. Data Scientist</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Calm</t>
+          <t>The Dignify Solutions, LLC</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>Raritan, NJ</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -8092,7 +8092,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -8107,25 +8107,25 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-calm-4334333877?position=9&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=QCG3HzlGBwQLYwej4nZelg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/jr-data-scientist-at-the-dignify-solutions-llc-4317671813?position=52&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=rY5F1KKCWYkTzmgT4YCSeA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Data Scientist, Search AI Mode</t>
+          <t>AI/ML Engineer</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>SIDRAM TECHNOLOGIES</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Mountain View, CA</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -8135,7 +8135,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -8150,25 +8150,25 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-search-ai-mode-at-google-4321031254?position=11&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=fDT7PDbabbLxzHDBAnqncA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-at-sidram-technologies-4267261993?position=53&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=cdxvVob%2Bfe9n1xa9agCa2Q%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Data Scientist, Research, Ads Insight and Measurement</t>
+          <t>AI/ML Engineer 🧠 (LLM Optimization &amp; AI-Driven Workflows)</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>Legion Health</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -8178,7 +8178,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -8193,25 +8193,25 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-research-ads-insight-and-measurement-at-google-4320846198?position=12&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=XleA9GLU4iAb9Jb21mcO2A%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/ai-ml-engineer-%F0%9F%A7%A0-llm-optimization-ai-driven-workflows-at-legion-health-4147155685?position=54&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=mDBlyzTzV53CU6vJUuar8g%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Junior Data Scientist</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>Kforce Inc</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Redmond, WA</t>
+          <t>Palm Beach Gardens, FL</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -8221,7 +8221,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -8236,25 +8236,25 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-microsoft-4316530870?position=14&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=sXLBF7OLc2VBqygu0p1OZw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/junior-data-scientist-at-kforce-inc-4311716695?position=56&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=e9N56haAuW07o1PavSfplQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Data Scientist, Decisions - Loyalty &amp; Partnerships</t>
+          <t>Data Scientist (Remote)</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Lyft</t>
+          <t>Elder Research</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>San Francisco County, CA</t>
+          <t>Arlington, VA</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
@@ -8264,7 +8264,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -8279,25 +8279,25 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-decisions-loyalty-partnerships-at-lyft-4305170318?position=15&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=Xq5K2OxJZhG00ORWFyU%2F2w%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-remote-at-elder-research-3921376611?position=59&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=Knk3Cc7G0ymyV9ejYfVrEQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Data Scientist - All Levels</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Roku</t>
+          <t>Interclypse</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -8307,7 +8307,7 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -8322,25 +8322,25 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/senior-data-scientist-at-roku-4313070387?position=16&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=CGDpswhraEoxrNUUHq7NwA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-all-levels-at-interclypse-4251237886?position=60&amp;pageNum=0&amp;refId=D8ae2xmWbXqpxKhKnlpiGg%3D%3D&amp;trackingId=l5TUMFUj%2B6xMr4L%2B4jyWBA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, ML - Recommendations</t>
+          <t>decision scientist - Data &amp; Analytics  (Seattle,WA)</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Quince</t>
+          <t>Starbucks</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Palo Alto, CA</t>
+          <t>Seattle, WA</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -8350,7 +8350,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/senior-data-scientist-ml-recommendations-at-quince-4315011765?position=17&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=tuTBHoVKUeJ08F2vRuhRVw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/decision-scientist-data-analytics-seattle-wa-at-starbucks-4321470083?position=7&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=3PwgJZf415Mm6x%2FaBGdxyw%3D%3D</t>
         </is>
       </c>
     </row>
@@ -8377,13 +8377,13 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Adobe</t>
+          <t>Calm</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -8393,7 +8393,7 @@
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -8408,25 +8408,25 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-adobe-4305258345?position=18&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=ShnmnRM1kxqmO59xen13jQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-calm-4334333877?position=9&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=B1ap%2BTY4F1A7WNFcpIG%2Bjg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Python Web Developer</t>
+          <t>Data Scientist, Search AI Mode</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>BeaconFire Inc.</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>New Jersey, United States</t>
+          <t>Mountain View, CA</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -8436,7 +8436,7 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -8451,25 +8451,25 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/python-web-developer-at-beaconfire-inc-4337318010?position=19&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=8fgq8TppMe7XoYFccXIbzQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-search-ai-mode-at-google-4321031254?position=11&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=v%2FOdQWv24Rw1i6jWqQuqGw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Scientist, Research, Ads Insight and Measurement</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FanDuel</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Jersey City, NJ</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-fanduel-4302694649?position=20&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=%2BE%2BEZPHMY0HsVM39AKEKQQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-research-ads-insight-and-measurement-at-google-4320846198?position=12&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=Fv5dshty4c%2F%2B5fAX0JP6xQ%3D%3D</t>
         </is>
       </c>
     </row>
@@ -8506,13 +8506,13 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Experian</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>California, CA</t>
+          <t>Redmond, WA</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
@@ -8522,7 +8522,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -8537,25 +8537,25 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-experian-4334669370?position=21&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=RiHTrsj45VGXLOJxQVCxHg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-microsoft-4316530870?position=14&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=1JATsvDM38pj2odxN0cTKA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Scientist, Decisions - Loyalty &amp; Partnerships</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Stanford Medicine Children's Health</t>
+          <t>Lyft</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Palo Alto, CA</t>
+          <t>San Francisco County, CA</t>
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
@@ -8565,7 +8565,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -8580,25 +8580,25 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-stanford-medicine-children-s-health-4334970745?position=22&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=mi7tMBgJH%2FiZE6jXM9pTmw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-decisions-loyalty-partnerships-at-lyft-4305170318?position=15&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=HW0u14GRmsH95cZXfrdIYw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>BeaconFire Inc.</t>
+          <t>Roku</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>New York, United States</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -8608,7 +8608,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -8623,25 +8623,25 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/python-developer-at-beaconfire-inc-4337404299?position=23&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=rrV45Y4mXg2SE9%2BJqgjqRw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/senior-data-scientist-at-roku-4313070387?position=16&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=NfmRoczLOKzWp07OZYyvDw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Senior Data Scientist, ML - Recommendations</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Magnite</t>
+          <t>Quince</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Los Angeles Metropolitan Area</t>
+          <t>Palo Alto, CA</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -8651,7 +8651,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -8666,25 +8666,25 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-magnite-4263785220?position=24&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=RllQOx4ZUViXrHDVzEPrHA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/senior-data-scientist-ml-recommendations-at-quince-4315011765?position=17&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=FTMit31A%2F9mmaPglqyRLkg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Data Scientist - Digital Customer Marketing</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Dollar General</t>
+          <t>Adobe</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Nashville, TN</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
@@ -8709,25 +8709,25 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-digital-customer-marketing-at-dollar-general-4321128192?position=25&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=6GStPYmNbRF7g6aPiGzDjw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-adobe-4305258345?position=18&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=XVBDkIw4zoqviUUSryrpqw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Data Scientist, User Growth</t>
+          <t>Python Web Developer</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Duolingo</t>
+          <t>BeaconFire Inc.</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA</t>
+          <t>New Jersey, United States</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -8752,7 +8752,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-user-growth-at-duolingo-4305284545?position=26&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=76qnzCmtJeL8J2%2FQOCN4Hg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/python-web-developer-at-beaconfire-inc-4337318010?position=19&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=rOJv%2Fmh%2F8%2B0YT0mGpcoZ6g%3D%3D</t>
         </is>
       </c>
     </row>
@@ -8764,13 +8764,13 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Waymo</t>
+          <t>FanDuel</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Mountain View, CA</t>
+          <t>Jersey City, NJ</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
@@ -8780,7 +8780,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -8795,25 +8795,25 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-waymo-4299627613?position=28&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=c%2BR5%2FMenImphDjghslEfQg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-fanduel-4302694649?position=20&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=9ZW9o4lAvpZrF0IbTowmkg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sr Data Scientist - eCommerce</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>H-E-B</t>
+          <t>Experian</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>San Antonio, TX</t>
+          <t>California, CA</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/sr-data-scientist-ecommerce-at-h-e-b-4315525865?position=29&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=iI5Deof6ngwh4jCDjg5QHw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-experian-4334669370?position=21&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=UJkfka9IpZYjlxl3qDikEQ%3D%3D</t>
         </is>
       </c>
     </row>
@@ -8850,13 +8850,13 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Stefanini North America and APAC</t>
+          <t>Stanford Medicine Children's Health</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Dearborn, MI</t>
+          <t>Palo Alto, CA</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -8881,25 +8881,25 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-stefanini-north-america-and-apac-4334469275?position=30&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=o2ZL90tpmlpTUwh%2BGvQ6oQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-stanford-medicine-children-s-health-4334970745?position=22&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=sPWTXsh4N2nZxVAPM0NYGg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>OpenAI</t>
+          <t>BeaconFire Inc.</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>New York, United States</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
@@ -8909,7 +8909,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -8924,25 +8924,25 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-openai-4313808393?position=31&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=Y4MEz7KBqG03q0PjU%2BqCKg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/python-developer-at-beaconfire-inc-4337404299?position=23&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=9y4fnxvzKBMeaNOlgOu8zg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Jr. Marketing Data Scientist</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>Magnite</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Los Angeles Metropolitan Area</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -8952,7 +8952,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -8967,25 +8967,25 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/jr-marketing-data-scientist-at-cdw-4321238304?position=32&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=eQRyNypwbC7XfOZs%2FzSXxQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-magnite-4263785220?position=24&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=OFn4rFlARXopfoftCNxnhA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer Intern, (MS/PhD) 2026</t>
+          <t>Data Scientist - Digital Customer Marketing</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Dollar General</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>Nashville, TN</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -8995,7 +8995,7 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -9010,25 +9010,25 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-intern-ms-phd-2026-at-netflix-4312232372?position=33&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=S1t%2BD57VGtqwKtxhq5lPJA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-digital-customer-marketing-at-dollar-general-4321128192?position=25&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=rAeG8S3eTrvXmX9ypC0i5A%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Data Scientist, New Graduate</t>
+          <t>Data Scientist, User Growth</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ExecutivePlacements.com</t>
+          <t>Duolingo</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>Pittsburgh, PA</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -9053,25 +9053,25 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-new-graduate-at-executiveplacements-com-4334045528?position=34&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=bXUIH3TsjHwTy2PDLwBc%2FQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-user-growth-at-duolingo-4305284545?position=26&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=1YCruA7m6uuHA7Md7ZmU%2BA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Data Scientist I</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Bank of America</t>
+          <t>Waymo</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Mountain View, CA</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
@@ -9081,7 +9081,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -9096,25 +9096,25 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-i-at-bank-of-america-4292528295?position=36&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=bnDbu3D6HuoWUcYDx1Bk7A%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-waymo-4299627613?position=28&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=EObosJ%2FLwBmB2RDmXRWvgA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Data Scientist, Research, Ads Insight and Measurement</t>
+          <t>Sr Data Scientist - eCommerce</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>H-E-B</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Mountain View, CA</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -9124,7 +9124,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -9139,25 +9139,25 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-research-ads-insight-and-measurement-at-google-4320945932?position=38&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=5CnCm4dWp4oI5AGwy2z27Q%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/sr-data-scientist-ecommerce-at-h-e-b-4315525865?position=29&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=JxPFZ%2FMNfc0sM7v6%2Bpz18g%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Data Scientist Intern</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Lensa</t>
+          <t>Stefanini North America and APAC</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Raleigh, NC</t>
+          <t>Dearborn, MI</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -9167,7 +9167,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -9182,25 +9182,25 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-intern-at-lensa-4293726277?position=40&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=wEqP%2F1QiKZOQBuLzCONJKw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-stefanini-north-america-and-apac-4334469275?position=30&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=s6wk6P4Damm%2B2GRKb6DBhA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Data Scientist Intern</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Zoox</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Foster City, CA</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -9225,25 +9225,25 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-intern-at-zoox-4335042741?position=41&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=Wmtl5DhT%2FKbjEgHoe9OfWQ%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-openai-4313808393?position=31&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=3Bz9MMWdO5FiSPTYUKC3rw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Jr. Marketing Data Scientist</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Harrison Clarke</t>
+          <t>CDW</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
-          <t>San Francisco Bay Area</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -9253,7 +9253,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -9268,25 +9268,25 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-harrison-clarke-4334160367?position=42&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=Rb%2FZbUklUsoiO0Zf%2FhDK6A%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/jr-marketing-data-scientist-at-cdw-4321238304?position=32&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=ktjDuw180mbmNVKBTbLSgg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Machine Learning Engineer Intern, (MS/PhD) 2026</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Blu Omega</t>
+          <t>Netflix</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
-          <t>El Segundo, CA</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
@@ -9311,25 +9311,25 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-blu-omega-4320847694?position=43&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=FveKfyGMBQKwm3CdD8p2xA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-intern-ms-phd-2026-at-netflix-4312232372?position=33&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=1GSCEDW642jv2QEhFD0VXA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Data Scientist, Product Analytics</t>
+          <t>Data Scientist, New Graduate</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Meta</t>
+          <t>ExecutivePlacements.com</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Fremont, CA</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -9354,25 +9354,25 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-product-analytics-at-meta-4313315167?position=44&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=zKe1tFLny%2FxK4hSSA0DGzA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-new-graduate-at-executiveplacements-com-4334045528?position=34&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=QEzjH25wTFhtFrElI%2B%2Bl%2BQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Scientist I</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Valley Bank</t>
+          <t>Bank of America</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Morristown, NJ</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -9397,14 +9397,14 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-valley-bank-4315193516?position=45&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=07vpOZFGdmTaE%2FNogc4Xgw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-i-at-bank-of-america-4292528295?position=36&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=66WGblwGquMLRrI9Q%2Bhw9Q%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Business Data Scientist, Search Analytics</t>
+          <t>Data Scientist, Research, Ads Insight and Measurement</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -9425,7 +9425,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -9440,25 +9440,25 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/business-data-scientist-search-analytics-at-google-4321074943?position=46&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=hTIlbkXlZ7o8x9MSNZZZXg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-research-ads-insight-and-measurement-at-google-4320945932?position=38&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=Mx0GKPkHpJ3XTxdRNXeiKQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Data Scientist/Engineer - Experienced or Recent Grad (Health Tech Startup) 🚀</t>
+          <t>Data Scientist Intern</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>1Phi Inc</t>
+          <t>Lensa</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Raleigh, NC</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -9468,7 +9468,7 @@
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -9483,25 +9483,25 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-engineer-experienced-or-recent-grad-health-tech-startup-%F0%9F%9A%80-at-1phi-inc-4321279702?position=48&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=Mybas0hDU4rDBeLakfY8Zg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-intern-at-lensa-4293726277?position=40&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=g0GpCSBf0BfHMq9yRNeAnw%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Data Scientist (Remote - US)</t>
+          <t>Data Scientist Intern</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Jobgether</t>
+          <t>Zoox</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Foster City, CA</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -9526,25 +9526,25 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-remote-us-at-jobgether-4339516165?position=49&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=G%2FOeDdXxLhO98QUTgnsRXw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-intern-at-zoox-4335042741?position=41&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=7PlSukJQwrA5%2Ft2toTxDDQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Data Scientist (Data Engineer)</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Avenue Code</t>
+          <t>Harrison Clarke</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -9554,7 +9554,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-data-engineer-at-avenue-code-4321264276?position=50&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=1GlX0AM%2BPaBn8qvQLc6scA%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-at-harrison-clarke-4334160367?position=42&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=g%2F5n3EXHSSCWpYt%2FQH5wTA%3D%3D</t>
         </is>
       </c>
     </row>
@@ -9581,13 +9581,13 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Aditi Consulting</t>
+          <t>Blu Omega</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Thousand Oaks, CA</t>
+          <t>El Segundo, CA</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -9597,7 +9597,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -9612,25 +9612,25 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-aditi-consulting-4334688002?position=51&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=if%2B90BzfAASCj4Wcplfwfw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-blu-omega-4320847694?position=43&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=i90zcWyrq%2FVrQViu3tF7zQ%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Scientist, Product Analytics</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Genomic Life</t>
+          <t>Meta</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>Fremont, CA</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -9640,7 +9640,7 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-genomic-life-4334571008?position=52&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=qcJiPHkjuVYUww25CMBYbw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-product-analytics-at-meta-4313315167?position=44&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=oqsN6po%2BeJOSI4%2F1%2BEJjZw%3D%3D</t>
         </is>
       </c>
     </row>
@@ -9667,13 +9667,13 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>hackajob</t>
+          <t>Valley Bank</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Washington, DC</t>
+          <t>Morristown, NJ</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
@@ -9683,7 +9683,7 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -9698,25 +9698,25 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-hackajob-4314299200?position=55&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=pvjfRso0IVhls%2FEfBzFEhg%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-valley-bank-4315193516?position=45&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=1clQymP7FquS%2BPaDBTO37g%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Research Scientist - Salesforce AI Research</t>
+          <t>Business Data Scientist, Search Analytics</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>Mountain View, CA</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
@@ -9726,7 +9726,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -9741,25 +9741,25 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/research-scientist-salesforce-ai-research-at-salesforce-4085502977?position=57&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=GWFi5%2FRCHk2RHRCmvO%2FAsw%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/business-data-scientist-search-analytics-at-google-4321074943?position=46&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=iP%2FSExQt%2FrK9X93ZZGx0zA%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Field Data Scientist, AI Deployment</t>
+          <t>Data Scientist/Engineer - Experienced or Recent Grad (Health Tech Startup) 🚀</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Braze</t>
+          <t>1Phi Inc</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -9769,7 +9769,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -9784,19 +9784,19 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/field-data-scientist-ai-deployment-at-braze-4315366303?position=58&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=NXtHOaZxwNz6NO4dL7nn7A%3D%3D</t>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-engineer-experienced-or-recent-grad-health-tech-startup-%F0%9F%9A%80-at-1phi-inc-4321279702?position=48&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=1Ymn3crTf2UtGlITxGcJcg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Scientist (Remote - US)</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>iSpot</t>
+          <t>Jobgether</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -9812,22 +9812,323 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-remote-us-at-jobgether-4339516165?position=49&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=%2B521PN7%2B05lVc2laT%2FBorQ%3D%3D</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Data Scientist (Data Engineer)</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Avenue Code</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-data-engineer-at-avenue-code-4321264276?position=50&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=Tn0ONa3j4AHJ9r6kj2sDuA%3D%3D</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Aditi Consulting</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Thousand Oaks, CA</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-aditi-consulting-4334688002?position=51&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=rPqpJTTu5Vmc5dJREXIBiQ%3D%3D</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Genomic Life</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>San Diego, CA</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
           <t>2025-11-05</t>
         </is>
       </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>LinkedIn</t>
-        </is>
-      </c>
-      <c r="M218" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-ispot-4295712936?position=59&amp;pageNum=0&amp;refId=i3HXWVTY9XyVs5yBUAd4hw%3D%3D&amp;trackingId=reaPKCUMVyChGdpybcpgMw%3D%3D</t>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-genomic-life-4334571008?position=52&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=4ZyQyCvi6jmQQB%2BwAJIiNA%3D%3D</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>hackajob</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Washington, DC</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-hackajob-4314299200?position=55&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=KZv1UxkPJ73of42d22EWDQ%3D%3D</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Research Scientist - Salesforce AI Research</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Salesforce</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/research-scientist-salesforce-ai-research-at-salesforce-4085502977?position=57&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=j0pwKAFdt7GzPmiCdFccVA%3D%3D</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Field Data Scientist, AI Deployment</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Braze</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/field-data-scientist-ai-deployment-at-braze-4315366303?position=58&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=YcxwE7L26Ne0aY9sssaBnA%3D%3D</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>iSpot</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/data-scientist-at-ispot-4295712936?position=59&amp;pageNum=0&amp;refId=YmN%2B2kK9I3HicTs%2Fg%2Bz3EQ%3D%3D&amp;trackingId=kQO6U%2FNCOCMotBdBorJiOg%3D%3D</t>
         </is>
       </c>
     </row>
